--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>3.348624516477416</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>0.9030420588129084</v>
+        <v>6.253707197847636</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-1.795230130410519</v>
+        <v>-7.921319741078669</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-2.574759671493776</v>
+        <v>-14.35806537048445</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.765668342090442</v>
+        <v>0.2827737265587604</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>1.690613666316954</v>
+        <v>0.646969966709543</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>2.295210510275725</v>
+        <v>4.453626355171969</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>1.205410808099949</v>
+        <v>6.136355062499943</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>0.5991205513815823</v>
+        <v>1.477633171193093</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>0.4006004000999708</v>
+        <v>2.015050062499957</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.1494732105682406</v>
+        <v>-0.2005250704869344</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.8024032015999882</v>
+        <v>0.2533625145866525</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.87696028437685</v>
+        <v>2.234527904461125</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>2.015050062499957</v>
+        <v>3.31205545981732</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.412370212124414</v>
+        <v>1.31172787261824</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.690613666316954</v>
+        <v>1.093673275363716</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.852737630868506</v>
+        <v>1.784808447869168</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.177559070630619</v>
+        <v>2.687934870329323</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.898706229393077</v>
+        <v>1.874682902292824</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.015050062499979</v>
+        <v>2.445693358388845</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.600636136940393</v>
+        <v>2.159589514946769</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>2.829537440099972</v>
+        <v>1.194430031759008</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.052048406650874</v>
+        <v>0.801449343663907</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>0.4006004000999486</v>
+        <v>1.609625625600009</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>0.1299397948625325</v>
+        <v>-3.107661574595755</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>0.4006004000999486</v>
+        <v>-8.513835774399992</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-1.565160969988144</v>
+        <v>0.6949587062036411</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>4.821235451055594</v>
+        <v>4.530463903052695</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.705363361291323</v>
+        <v>2.016988966764255</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.550115130171692</v>
+        <v>1.492291178243965</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.02096303800552812</v>
+        <v>-0.1519071329076249</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.4009822256600959</v>
+        <v>0.3688835244738842</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.04881729603984919</v>
+        <v>-0.01173401322185352</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.951279292417806</v>
+        <v>1.025808301409614</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.5029642233369325</v>
+        <v>0.1328390304517146</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.2368782828938043</v>
+        <v>0.2797831653477356</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>0.6949587062036411</v>
+        <v>-1.621578487659159</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>4.530463903052695</v>
+        <v>-7.034216978939012</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>2.016988966764255</v>
+        <v>1.906376895025019</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.492291178243965</v>
+        <v>0.9449384537271177</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.1519071329076249</v>
+        <v>-0.4925007786849345</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.3688835244738842</v>
+        <v>-1.334423413378338</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.01173401322185352</v>
+        <v>-0.04522577349396206</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.025808301409614</v>
+        <v>0.8571375889190769</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.1328390304517146</v>
+        <v>0.4071596777631692</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.2797831653477356</v>
+        <v>1.656803071859136</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,14 +422,11 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>3.348624516477416</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>6.253707197847636</v>
+        <v>6.253707197847591</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-7.921319741078669</v>
+        <v>-7.921319741078636</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-14.35806537048445</v>
+        <v>-14.35806537048446</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -480,7 +477,7 @@
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>6.136355062499943</v>
+        <v>6.136355062499965</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +488,7 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.477633171193093</v>
+        <v>1.477633171193116</v>
       </c>
       <c r="D6">
         <v>2013</v>
@@ -508,7 +505,7 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-0.2005250704869344</v>
+        <v>-0.2005250704869121</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -525,7 +522,7 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>2.234527904461125</v>
+        <v>2.234527904461148</v>
       </c>
       <c r="D8">
         <v>2015</v>
@@ -542,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.31172787261824</v>
+        <v>1.311727872618218</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.093673275363716</v>
+        <v>1.093673275363694</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,7 +556,7 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.784808447869168</v>
+        <v>1.784808447869191</v>
       </c>
       <c r="D10">
         <v>2017</v>
@@ -593,7 +590,7 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.159589514946769</v>
+        <v>2.159589514946725</v>
       </c>
       <c r="D12">
         <v>2019</v>
@@ -610,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>0.801449343663907</v>
+        <v>0.8014493436638848</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.609625625600009</v>
+        <v>1.609625625599986</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-3.107661574595755</v>
+        <v>-3.107661574595766</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-8.513835774399992</v>
+        <v>-8.513835774400015</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,7 +641,7 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-1.621578487659159</v>
+        <v>-1.621578487659103</v>
       </c>
       <c r="D15">
         <v>2022</v>
@@ -661,13 +658,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.906376895025019</v>
+        <v>1.906376895025041</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.9449384537271177</v>
+        <v>0.9449384537270955</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,7 +675,7 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.4925007786849345</v>
+        <v>-0.4925007786849234</v>
       </c>
       <c r="D17">
         <v>2024</v>
